--- a/A02SZL1_ENGINEER RECONCILIATION REPORT.xlsx
+++ b/A02SZL1_ENGINEER RECONCILIATION REPORT.xlsx
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c s="10" r="I54">
-        <v>1565</v>
+        <v>1515</v>
       </c>
       <c s="4" t="inlineStr" r="J54">
         <is>
-          <t xml:space="preserve">1565</t>
+          <t xml:space="preserve">1515</t>
         </is>
       </c>
       <c s="6" t="str" r="K54"/>
@@ -1229,7 +1229,7 @@
       </c>
       <c s="4" t="inlineStr" r="J56">
         <is>
-          <t xml:space="preserve">1432</t>
+          <t xml:space="preserve">1482</t>
         </is>
       </c>
       <c s="6" t="str" r="K56"/>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c s="10" r="I57">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c s="4" t="str" r="J57"/>
       <c s="6" t="str" r="K57"/>

--- a/A02SZL1_ENGINEER RECONCILIATION REPORT.xlsx
+++ b/A02SZL1_ENGINEER RECONCILIATION REPORT.xlsx
@@ -150,6 +150,17 @@
       <left style="thin">
         <color rgb="FFD3D3D3"/>
       </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -175,17 +186,6 @@
       <bottom style="thin">
         <color rgb="FFD3D3D3"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD3D3D3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD3D3D3"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -398,7 +398,7 @@
     <row r="10" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">5B92MT-144</t>
+          <t xml:space="preserve">5B92MR-576</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C10">
@@ -410,11 +410,7 @@
       <c s="6" t="str" r="E10"/>
     </row>
     <row r="11" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B11">
-        <is>
-          <t xml:space="preserve">5BQ2MR-432</t>
-        </is>
-      </c>
+      <c s="7" t="str" r="B11"/>
       <c s="4" t="inlineStr" r="C11">
         <is>
           <t xml:space="preserve">845C</t>
@@ -426,7 +422,7 @@
     <row r="12" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">FNAP-CBL-024</t>
+          <t xml:space="preserve">5B92MT-144</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C12">
@@ -440,22 +436,26 @@
     <row r="13" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">FNAP-CBL-024EUC</t>
+          <t xml:space="preserve">5BQ2MT-144</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">822C</t>
+          <t xml:space="preserve">845C</t>
         </is>
       </c>
       <c s="5" t="str" r="D13"/>
       <c s="6" t="str" r="E13"/>
     </row>
     <row r="14" ht="18" customHeight="0">
-      <c s="7" t="str" r="B14"/>
+      <c s="4" t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-024</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">845C</t>
+          <t xml:space="preserve">822C</t>
         </is>
       </c>
       <c s="5" t="str" r="D14"/>
@@ -464,7 +464,7 @@
     <row r="15" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">FNAP-CBL-048</t>
+          <t xml:space="preserve">FNAP-CBL-024EUC</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C15">
@@ -476,24 +476,24 @@
       <c s="6" t="str" r="E15"/>
     </row>
     <row r="16" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B16">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-048EUC</t>
-        </is>
-      </c>
+      <c s="7" t="str" r="B16"/>
       <c s="4" t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">822C</t>
+          <t xml:space="preserve">845C</t>
         </is>
       </c>
       <c s="5" t="str" r="D16"/>
       <c s="6" t="str" r="E16"/>
     </row>
     <row r="17" ht="18" customHeight="0">
-      <c s="7" t="str" r="B17"/>
+      <c s="4" t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-048</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="C17">
         <is>
-          <t xml:space="preserve">845C</t>
+          <t xml:space="preserve">822C</t>
         </is>
       </c>
       <c s="5" t="str" r="D17"/>
@@ -502,7 +502,7 @@
     <row r="18" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">FNAP-CBL-072</t>
+          <t xml:space="preserve">FNAP-CBL-048EUC</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C18">
@@ -514,11 +514,7 @@
       <c s="6" t="str" r="E18"/>
     </row>
     <row r="19" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B19">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-072EUC</t>
-        </is>
-      </c>
+      <c s="7" t="str" r="B19"/>
       <c s="4" t="inlineStr" r="C19">
         <is>
           <t xml:space="preserve">845C</t>
@@ -530,7 +526,7 @@
     <row r="20" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">FNAP-CBL-144</t>
+          <t xml:space="preserve">FNAP-CBL-072</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C20">
@@ -544,12 +540,12 @@
     <row r="21" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">FNAP-CBL-216EUC</t>
+          <t xml:space="preserve">FNAP-CBL-072EUC</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">822C</t>
+          <t xml:space="preserve">845C</t>
         </is>
       </c>
       <c s="5" t="str" r="D21"/>
@@ -558,7 +554,7 @@
     <row r="22" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">FNAP-CBL-432EUC</t>
+          <t xml:space="preserve">FNAP-CBL-144</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C22">
@@ -570,7 +566,11 @@
       <c s="6" t="str" r="E22"/>
     </row>
     <row r="23" ht="18" customHeight="0">
-      <c s="7" t="str" r="B23"/>
+      <c s="4" t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-144EUC</t>
+        </is>
+      </c>
       <c s="4" t="inlineStr" r="C23">
         <is>
           <t xml:space="preserve">845C</t>
@@ -579,1094 +579,1066 @@
       <c s="5" t="str" r="D23"/>
       <c s="6" t="str" r="E23"/>
     </row>
-    <row r="24" ht="12.9" customHeight="1"/>
-    <row r="25" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B25">
+    <row r="24" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-432EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">822C</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="D24"/>
+      <c s="6" t="str" r="E24"/>
+    </row>
+    <row r="25" ht="12.9" customHeight="1"/>
+    <row r="26" ht="18" customHeight="0">
+      <c s="3" t="inlineStr" r="B26">
         <is>
           <t xml:space="preserve">Details</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="5" customHeight="1"/>
-    <row r="27" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B27">
-        <is>
-          <t xml:space="preserve">MATERIAL</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C27">
-        <is>
-          <t xml:space="preserve">FRC</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="D27"/>
-      <c s="6" t="str" r="E27"/>
-      <c s="4" t="inlineStr" r="F27">
-        <is>
-          <t xml:space="preserve">SRC</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G27"/>
-      <c s="4" t="inlineStr" r="H27">
-        <is>
-          <t xml:space="preserve">ITEM</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="I27">
-        <is>
-          <t xml:space="preserve">QTY</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="J27">
-        <is>
-          <t xml:space="preserve">Total</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K27"/>
-    </row>
+    <row r="27" ht="5" customHeight="1"/>
     <row r="28" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">5B92MT-144</t>
+          <t xml:space="preserve">MATERIAL</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C28">
         <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D28"/>
-      <c s="9" t="str" r="E28"/>
+          <t xml:space="preserve">FRC</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="D28"/>
+      <c s="6" t="str" r="E28"/>
       <c s="4" t="inlineStr" r="F28">
         <is>
-          <t xml:space="preserve">feature</t>
+          <t xml:space="preserve">SRC</t>
         </is>
       </c>
       <c s="6" t="str" r="G28"/>
       <c s="4" t="inlineStr" r="H28">
         <is>
-          <t xml:space="preserve">137659389</t>
-        </is>
-      </c>
-      <c s="10" r="I28">
-        <v>2688</v>
+          <t xml:space="preserve">ITEM</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="I28">
+        <is>
+          <t xml:space="preserve">QTY</t>
+        </is>
       </c>
       <c s="4" t="inlineStr" r="J28">
         <is>
-          <t xml:space="preserve">2688</t>
+          <t xml:space="preserve">Total</t>
         </is>
       </c>
       <c s="6" t="str" r="K28"/>
     </row>
     <row r="29" ht="18" customHeight="0">
-      <c s="7" t="str" r="B29"/>
-      <c s="11" t="str" r="C29"/>
-      <c s="12" t="str" r="D29"/>
-      <c s="13" t="str" r="E29"/>
+      <c s="4" t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">5B92MR-576</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C29">
+        <is>
+          <t xml:space="preserve">822C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D29"/>
+      <c s="9" t="str" r="E29"/>
       <c s="4" t="inlineStr" r="F29">
         <is>
-          <t xml:space="preserve">task</t>
+          <t xml:space="preserve">feature</t>
         </is>
       </c>
       <c s="6" t="str" r="G29"/>
       <c s="4" t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">8.3</t>
+          <t xml:space="preserve">138043106</t>
         </is>
       </c>
       <c s="10" r="I29">
-        <v>2688</v>
+        <v>2019</v>
       </c>
       <c s="4" t="inlineStr" r="J29">
         <is>
-          <t xml:space="preserve">2688</t>
+          <t xml:space="preserve">2019</t>
         </is>
       </c>
       <c s="6" t="str" r="K29"/>
     </row>
     <row r="30" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B30">
-        <is>
-          <t xml:space="preserve">5BQ2MR-432</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C30">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D30"/>
-      <c s="9" t="str" r="E30"/>
+      <c s="11" t="str" r="B30"/>
+      <c s="12" t="str" r="C30"/>
+      <c s="13" t="str" r="D30"/>
+      <c s="14" t="str" r="E30"/>
       <c s="4" t="inlineStr" r="F30">
         <is>
-          <t xml:space="preserve">feature</t>
+          <t xml:space="preserve">task</t>
         </is>
       </c>
       <c s="6" t="str" r="G30"/>
       <c s="4" t="inlineStr" r="H30">
         <is>
+          <t xml:space="preserve">6.12</t>
+        </is>
+      </c>
+      <c s="10" r="I30">
+        <v>2019</v>
+      </c>
+      <c s="4" t="inlineStr" r="J30">
+        <is>
+          <t xml:space="preserve">2019</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K30"/>
+    </row>
+    <row r="31" ht="18" customHeight="0">
+      <c s="11" t="str" r="B31"/>
+      <c s="4" t="inlineStr" r="C31">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D31"/>
+      <c s="9" t="str" r="E31"/>
+      <c s="4" t="inlineStr" r="F31">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G31"/>
+      <c s="4" t="inlineStr" r="H31">
+        <is>
+          <t xml:space="preserve">138043106</t>
+        </is>
+      </c>
+      <c s="10" r="I31">
+        <v>141</v>
+      </c>
+      <c s="4" t="inlineStr" r="J31">
+        <is>
+          <t xml:space="preserve">141</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K31"/>
+    </row>
+    <row r="32" ht="18" customHeight="0">
+      <c s="11" t="str" r="B32"/>
+      <c s="15" t="str" r="C32"/>
+      <c s="16" t="str" r="E32"/>
+      <c s="12" t="str" r="F32"/>
+      <c s="14" t="str" r="G32"/>
+      <c s="7" t="str" r="H32"/>
+      <c s="10" r="I32">
+        <v>0</v>
+      </c>
+      <c s="4" t="str" r="J32"/>
+      <c s="6" t="str" r="K32"/>
+    </row>
+    <row r="33" ht="18" customHeight="0">
+      <c s="7" t="str" r="B33"/>
+      <c s="12" t="str" r="C33"/>
+      <c s="13" t="str" r="D33"/>
+      <c s="14" t="str" r="E33"/>
+      <c s="4" t="inlineStr" r="F33">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G33"/>
+      <c s="4" t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve">6.11</t>
+        </is>
+      </c>
+      <c s="10" r="I33">
+        <v>141</v>
+      </c>
+      <c s="4" t="inlineStr" r="J33">
+        <is>
+          <t xml:space="preserve">141</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K33"/>
+    </row>
+    <row r="34" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">5B92MT-144</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C34">
+        <is>
+          <t xml:space="preserve">822C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D34"/>
+      <c s="9" t="str" r="E34"/>
+      <c s="4" t="inlineStr" r="F34">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G34"/>
+      <c s="4" t="inlineStr" r="H34">
+        <is>
+          <t xml:space="preserve">137659389</t>
+        </is>
+      </c>
+      <c s="10" r="I34">
+        <v>2688</v>
+      </c>
+      <c s="4" t="inlineStr" r="J34">
+        <is>
+          <t xml:space="preserve">2688</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K34"/>
+    </row>
+    <row r="35" ht="18" customHeight="0">
+      <c s="7" t="str" r="B35"/>
+      <c s="12" t="str" r="C35"/>
+      <c s="13" t="str" r="D35"/>
+      <c s="14" t="str" r="E35"/>
+      <c s="4" t="inlineStr" r="F35">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G35"/>
+      <c s="4" t="inlineStr" r="H35">
+        <is>
+          <t xml:space="preserve">8.3</t>
+        </is>
+      </c>
+      <c s="10" r="I35">
+        <v>2688</v>
+      </c>
+      <c s="4" t="inlineStr" r="J35">
+        <is>
+          <t xml:space="preserve">2688</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K35"/>
+    </row>
+    <row r="36" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">5BQ2MT-144</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C36">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D36"/>
+      <c s="9" t="str" r="E36"/>
+      <c s="4" t="inlineStr" r="F36">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G36"/>
+      <c s="4" t="inlineStr" r="H36">
+        <is>
           <t xml:space="preserve">137697012</t>
         </is>
       </c>
-      <c s="10" r="I30">
+      <c s="10" r="I36">
         <v>100</v>
       </c>
-      <c s="4" t="inlineStr" r="J30">
+      <c s="4" t="inlineStr" r="J36">
         <is>
           <t xml:space="preserve">100</t>
         </is>
       </c>
-      <c s="6" t="str" r="K30"/>
-    </row>
-    <row r="31" ht="18" customHeight="0">
-      <c s="7" t="str" r="B31"/>
-      <c s="11" t="str" r="C31"/>
-      <c s="12" t="str" r="D31"/>
-      <c s="13" t="str" r="E31"/>
-      <c s="4" t="inlineStr" r="F31">
+      <c s="6" t="str" r="K36"/>
+    </row>
+    <row r="37" ht="18" customHeight="0">
+      <c s="7" t="str" r="B37"/>
+      <c s="12" t="str" r="C37"/>
+      <c s="13" t="str" r="D37"/>
+      <c s="14" t="str" r="E37"/>
+      <c s="4" t="inlineStr" r="F37">
         <is>
           <t xml:space="preserve">task</t>
         </is>
       </c>
-      <c s="6" t="str" r="G31"/>
-      <c s="4" t="inlineStr" r="H31">
+      <c s="6" t="str" r="G37"/>
+      <c s="4" t="inlineStr" r="H37">
         <is>
           <t xml:space="preserve">6.5</t>
         </is>
       </c>
-      <c s="10" r="I31">
+      <c s="10" r="I37">
         <v>100</v>
       </c>
-      <c s="4" t="inlineStr" r="J31">
+      <c s="4" t="inlineStr" r="J37">
         <is>
           <t xml:space="preserve">100</t>
         </is>
       </c>
-      <c s="6" t="str" r="K31"/>
-    </row>
-    <row r="32" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B32">
+      <c s="6" t="str" r="K37"/>
+    </row>
+    <row r="38" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B38">
         <is>
           <t xml:space="preserve">FNAP-CBL-024</t>
         </is>
       </c>
-      <c s="4" t="inlineStr" r="C32">
+      <c s="4" t="inlineStr" r="C38">
         <is>
           <t xml:space="preserve">822C</t>
         </is>
       </c>
-      <c s="8" t="str" r="D32"/>
-      <c s="9" t="str" r="E32"/>
-      <c s="4" t="inlineStr" r="F32">
+      <c s="8" t="str" r="D38"/>
+      <c s="9" t="str" r="E38"/>
+      <c s="4" t="inlineStr" r="F38">
         <is>
           <t xml:space="preserve">feature</t>
         </is>
       </c>
-      <c s="9" t="str" r="G32"/>
-      <c s="4" t="inlineStr" r="H32">
+      <c s="9" t="str" r="G38"/>
+      <c s="4" t="inlineStr" r="H38">
         <is>
           <t xml:space="preserve">137678506</t>
         </is>
       </c>
-      <c s="10" r="I32">
+      <c s="10" r="I38">
         <v>1461</v>
       </c>
-      <c s="4" t="inlineStr" r="J32">
+      <c s="4" t="inlineStr" r="J38">
         <is>
           <t xml:space="preserve">9066</t>
         </is>
       </c>
-      <c s="6" t="str" r="K32"/>
-    </row>
-    <row r="33" ht="18" customHeight="0">
-      <c s="14" t="str" r="B33"/>
-      <c s="15" t="str" r="C33"/>
-      <c s="16" t="str" r="E33"/>
-      <c s="15" t="str" r="F33"/>
-      <c s="16" t="str" r="G33"/>
-      <c s="4" t="inlineStr" r="H33">
-        <is>
-          <t xml:space="preserve">137678496</t>
-        </is>
-      </c>
-      <c s="10" r="I33">
-        <v>1126</v>
-      </c>
-      <c s="4" t="str" r="J33"/>
-      <c s="6" t="str" r="K33"/>
-    </row>
-    <row r="34" ht="18" customHeight="0">
-      <c s="14" t="str" r="B34"/>
-      <c s="15" t="str" r="C34"/>
-      <c s="16" t="str" r="E34"/>
-      <c s="15" t="str" r="F34"/>
-      <c s="16" t="str" r="G34"/>
-      <c s="4" t="inlineStr" r="H34">
-        <is>
-          <t xml:space="preserve">137678425</t>
-        </is>
-      </c>
-      <c s="10" r="I34">
-        <v>1096</v>
-      </c>
-      <c s="4" t="str" r="J34"/>
-      <c s="6" t="str" r="K34"/>
-    </row>
-    <row r="35" ht="18" customHeight="0">
-      <c s="14" t="str" r="B35"/>
-      <c s="15" t="str" r="C35"/>
-      <c s="16" t="str" r="E35"/>
-      <c s="15" t="str" r="F35"/>
-      <c s="16" t="str" r="G35"/>
-      <c s="4" t="inlineStr" r="H35">
-        <is>
-          <t xml:space="preserve">137678084</t>
-        </is>
-      </c>
-      <c s="10" r="I35">
-        <v>1053</v>
-      </c>
-      <c s="4" t="str" r="J35"/>
-      <c s="6" t="str" r="K35"/>
-    </row>
-    <row r="36" ht="18" customHeight="0">
-      <c s="14" t="str" r="B36"/>
-      <c s="15" t="str" r="C36"/>
-      <c s="16" t="str" r="E36"/>
-      <c s="15" t="str" r="F36"/>
-      <c s="16" t="str" r="G36"/>
-      <c s="4" t="inlineStr" r="H36">
-        <is>
-          <t xml:space="preserve">137678307</t>
-        </is>
-      </c>
-      <c s="10" r="I36">
-        <v>978</v>
-      </c>
-      <c s="4" t="str" r="J36"/>
-      <c s="6" t="str" r="K36"/>
-    </row>
-    <row r="37" ht="18" customHeight="0">
-      <c s="14" t="str" r="B37"/>
-      <c s="15" t="str" r="C37"/>
-      <c s="16" t="str" r="E37"/>
-      <c s="15" t="str" r="F37"/>
-      <c s="16" t="str" r="G37"/>
-      <c s="4" t="inlineStr" r="H37">
-        <is>
-          <t xml:space="preserve">137659572</t>
-        </is>
-      </c>
-      <c s="10" r="I37">
-        <v>937</v>
-      </c>
-      <c s="4" t="str" r="J37"/>
-      <c s="6" t="str" r="K37"/>
-    </row>
-    <row r="38" ht="18" customHeight="0">
-      <c s="14" t="str" r="B38"/>
-      <c s="15" t="str" r="C38"/>
-      <c s="16" t="str" r="E38"/>
-      <c s="15" t="str" r="F38"/>
-      <c s="16" t="str" r="G38"/>
-      <c s="4" t="inlineStr" r="H38">
-        <is>
-          <t xml:space="preserve">137678435</t>
-        </is>
-      </c>
-      <c s="10" r="I38">
-        <v>649</v>
-      </c>
-      <c s="4" t="str" r="J38"/>
       <c s="6" t="str" r="K38"/>
     </row>
     <row r="39" ht="18" customHeight="0">
-      <c s="14" t="str" r="B39"/>
+      <c s="11" t="str" r="B39"/>
       <c s="15" t="str" r="C39"/>
       <c s="16" t="str" r="E39"/>
       <c s="15" t="str" r="F39"/>
       <c s="16" t="str" r="G39"/>
       <c s="4" t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">137678138</t>
+          <t xml:space="preserve">137678496</t>
         </is>
       </c>
       <c s="10" r="I39">
-        <v>485</v>
+        <v>1126</v>
       </c>
       <c s="4" t="str" r="J39"/>
       <c s="6" t="str" r="K39"/>
     </row>
     <row r="40" ht="18" customHeight="0">
-      <c s="14" t="str" r="B40"/>
+      <c s="11" t="str" r="B40"/>
       <c s="15" t="str" r="C40"/>
       <c s="16" t="str" r="E40"/>
       <c s="15" t="str" r="F40"/>
       <c s="16" t="str" r="G40"/>
       <c s="4" t="inlineStr" r="H40">
         <is>
-          <t xml:space="preserve">137678118</t>
+          <t xml:space="preserve">137678425</t>
         </is>
       </c>
       <c s="10" r="I40">
-        <v>484</v>
+        <v>1096</v>
       </c>
       <c s="4" t="str" r="J40"/>
       <c s="6" t="str" r="K40"/>
     </row>
     <row r="41" ht="18" customHeight="0">
-      <c s="14" t="str" r="B41"/>
+      <c s="11" t="str" r="B41"/>
       <c s="15" t="str" r="C41"/>
       <c s="16" t="str" r="E41"/>
       <c s="15" t="str" r="F41"/>
       <c s="16" t="str" r="G41"/>
       <c s="4" t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">137678203</t>
+          <t xml:space="preserve">137678084</t>
         </is>
       </c>
       <c s="10" r="I41">
-        <v>416</v>
+        <v>1053</v>
       </c>
       <c s="4" t="str" r="J41"/>
       <c s="6" t="str" r="K41"/>
     </row>
     <row r="42" ht="18" customHeight="0">
-      <c s="14" t="str" r="B42"/>
+      <c s="11" t="str" r="B42"/>
       <c s="15" t="str" r="C42"/>
       <c s="16" t="str" r="E42"/>
-      <c s="11" t="str" r="F42"/>
-      <c s="13" t="str" r="G42"/>
+      <c s="15" t="str" r="F42"/>
+      <c s="16" t="str" r="G42"/>
       <c s="4" t="inlineStr" r="H42">
         <is>
-          <t xml:space="preserve">137659495</t>
+          <t xml:space="preserve">137678307</t>
         </is>
       </c>
       <c s="10" r="I42">
-        <v>381</v>
+        <v>978</v>
       </c>
       <c s="4" t="str" r="J42"/>
       <c s="6" t="str" r="K42"/>
     </row>
     <row r="43" ht="18" customHeight="0">
-      <c s="14" t="str" r="B43"/>
+      <c s="11" t="str" r="B43"/>
       <c s="15" t="str" r="C43"/>
       <c s="16" t="str" r="E43"/>
-      <c s="4" t="inlineStr" r="F43">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G43"/>
+      <c s="15" t="str" r="F43"/>
+      <c s="16" t="str" r="G43"/>
       <c s="4" t="inlineStr" r="H43">
         <is>
-          <t xml:space="preserve">18.7</t>
+          <t xml:space="preserve">137659572</t>
         </is>
       </c>
       <c s="10" r="I43">
-        <v>1461</v>
-      </c>
-      <c s="4" t="inlineStr" r="J43">
-        <is>
-          <t xml:space="preserve">9066</t>
-        </is>
-      </c>
+        <v>937</v>
+      </c>
+      <c s="4" t="str" r="J43"/>
       <c s="6" t="str" r="K43"/>
     </row>
     <row r="44" ht="18" customHeight="0">
-      <c s="14" t="str" r="B44"/>
+      <c s="11" t="str" r="B44"/>
       <c s="15" t="str" r="C44"/>
       <c s="16" t="str" r="E44"/>
       <c s="15" t="str" r="F44"/>
       <c s="16" t="str" r="G44"/>
       <c s="4" t="inlineStr" r="H44">
         <is>
-          <t xml:space="preserve">16.9</t>
+          <t xml:space="preserve">137678435</t>
         </is>
       </c>
       <c s="10" r="I44">
-        <v>1126</v>
+        <v>649</v>
       </c>
       <c s="4" t="str" r="J44"/>
       <c s="6" t="str" r="K44"/>
     </row>
     <row r="45" ht="18" customHeight="0">
-      <c s="14" t="str" r="B45"/>
+      <c s="11" t="str" r="B45"/>
       <c s="15" t="str" r="C45"/>
       <c s="16" t="str" r="E45"/>
       <c s="15" t="str" r="F45"/>
       <c s="16" t="str" r="G45"/>
       <c s="4" t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">13.10</t>
+          <t xml:space="preserve">137678138</t>
         </is>
       </c>
       <c s="10" r="I45">
-        <v>1096</v>
+        <v>485</v>
       </c>
       <c s="4" t="str" r="J45"/>
       <c s="6" t="str" r="K45"/>
     </row>
     <row r="46" ht="18" customHeight="0">
-      <c s="14" t="str" r="B46"/>
+      <c s="11" t="str" r="B46"/>
       <c s="15" t="str" r="C46"/>
       <c s="16" t="str" r="E46"/>
       <c s="15" t="str" r="F46"/>
       <c s="16" t="str" r="G46"/>
       <c s="4" t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">35.5</t>
+          <t xml:space="preserve">137678118</t>
         </is>
       </c>
       <c s="10" r="I46">
-        <v>1053</v>
+        <v>484</v>
       </c>
       <c s="4" t="str" r="J46"/>
       <c s="6" t="str" r="K46"/>
     </row>
     <row r="47" ht="18" customHeight="0">
-      <c s="14" t="str" r="B47"/>
+      <c s="11" t="str" r="B47"/>
       <c s="15" t="str" r="C47"/>
       <c s="16" t="str" r="E47"/>
       <c s="15" t="str" r="F47"/>
       <c s="16" t="str" r="G47"/>
       <c s="4" t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">25.13</t>
+          <t xml:space="preserve">137678203</t>
         </is>
       </c>
       <c s="10" r="I47">
-        <v>978</v>
+        <v>416</v>
       </c>
       <c s="4" t="str" r="J47"/>
       <c s="6" t="str" r="K47"/>
     </row>
     <row r="48" ht="18" customHeight="0">
-      <c s="14" t="str" r="B48"/>
+      <c s="11" t="str" r="B48"/>
       <c s="15" t="str" r="C48"/>
       <c s="16" t="str" r="E48"/>
-      <c s="15" t="str" r="F48"/>
-      <c s="16" t="str" r="G48"/>
+      <c s="12" t="str" r="F48"/>
+      <c s="14" t="str" r="G48"/>
       <c s="4" t="inlineStr" r="H48">
         <is>
-          <t xml:space="preserve">23.1</t>
+          <t xml:space="preserve">137659495</t>
         </is>
       </c>
       <c s="10" r="I48">
-        <v>937</v>
+        <v>381</v>
       </c>
       <c s="4" t="str" r="J48"/>
       <c s="6" t="str" r="K48"/>
     </row>
     <row r="49" ht="18" customHeight="0">
-      <c s="14" t="str" r="B49"/>
+      <c s="11" t="str" r="B49"/>
       <c s="15" t="str" r="C49"/>
       <c s="16" t="str" r="E49"/>
-      <c s="15" t="str" r="F49"/>
-      <c s="16" t="str" r="G49"/>
+      <c s="4" t="inlineStr" r="F49">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G49"/>
       <c s="4" t="inlineStr" r="H49">
         <is>
-          <t xml:space="preserve">13.9</t>
+          <t xml:space="preserve">18.7</t>
         </is>
       </c>
       <c s="10" r="I49">
-        <v>649</v>
-      </c>
-      <c s="4" t="str" r="J49"/>
+        <v>1461</v>
+      </c>
+      <c s="4" t="inlineStr" r="J49">
+        <is>
+          <t xml:space="preserve">9066</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K49"/>
     </row>
     <row r="50" ht="18" customHeight="0">
-      <c s="14" t="str" r="B50"/>
+      <c s="11" t="str" r="B50"/>
       <c s="15" t="str" r="C50"/>
       <c s="16" t="str" r="E50"/>
       <c s="15" t="str" r="F50"/>
       <c s="16" t="str" r="G50"/>
       <c s="4" t="inlineStr" r="H50">
         <is>
-          <t xml:space="preserve">32.2</t>
+          <t xml:space="preserve">16.9</t>
         </is>
       </c>
       <c s="10" r="I50">
-        <v>485</v>
+        <v>1126</v>
       </c>
       <c s="4" t="str" r="J50"/>
       <c s="6" t="str" r="K50"/>
     </row>
     <row r="51" ht="18" customHeight="0">
-      <c s="14" t="str" r="B51"/>
+      <c s="11" t="str" r="B51"/>
       <c s="15" t="str" r="C51"/>
       <c s="16" t="str" r="E51"/>
       <c s="15" t="str" r="F51"/>
       <c s="16" t="str" r="G51"/>
       <c s="4" t="inlineStr" r="H51">
         <is>
-          <t xml:space="preserve">32.1</t>
+          <t xml:space="preserve">13.10</t>
         </is>
       </c>
       <c s="10" r="I51">
-        <v>484</v>
+        <v>1096</v>
       </c>
       <c s="4" t="str" r="J51"/>
       <c s="6" t="str" r="K51"/>
     </row>
     <row r="52" ht="18" customHeight="0">
-      <c s="14" t="str" r="B52"/>
+      <c s="11" t="str" r="B52"/>
       <c s="15" t="str" r="C52"/>
       <c s="16" t="str" r="E52"/>
       <c s="15" t="str" r="F52"/>
       <c s="16" t="str" r="G52"/>
       <c s="4" t="inlineStr" r="H52">
         <is>
-          <t xml:space="preserve">34.1</t>
+          <t xml:space="preserve">35.5</t>
         </is>
       </c>
       <c s="10" r="I52">
-        <v>416</v>
+        <v>1053</v>
       </c>
       <c s="4" t="str" r="J52"/>
       <c s="6" t="str" r="K52"/>
     </row>
     <row r="53" ht="18" customHeight="0">
-      <c s="7" t="str" r="B53"/>
-      <c s="11" t="str" r="C53"/>
-      <c s="12" t="str" r="D53"/>
-      <c s="13" t="str" r="E53"/>
-      <c s="11" t="str" r="F53"/>
-      <c s="13" t="str" r="G53"/>
+      <c s="11" t="str" r="B53"/>
+      <c s="15" t="str" r="C53"/>
+      <c s="16" t="str" r="E53"/>
+      <c s="15" t="str" r="F53"/>
+      <c s="16" t="str" r="G53"/>
       <c s="4" t="inlineStr" r="H53">
         <is>
-          <t xml:space="preserve">21.1</t>
+          <t xml:space="preserve">25.13</t>
         </is>
       </c>
       <c s="10" r="I53">
-        <v>381</v>
+        <v>978</v>
       </c>
       <c s="4" t="str" r="J53"/>
       <c s="6" t="str" r="K53"/>
     </row>
     <row r="54" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B54">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-024EUC</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C54">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D54"/>
-      <c s="9" t="str" r="E54"/>
-      <c s="4" t="inlineStr" r="F54">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G54"/>
+      <c s="11" t="str" r="B54"/>
+      <c s="15" t="str" r="C54"/>
+      <c s="16" t="str" r="E54"/>
+      <c s="15" t="str" r="F54"/>
+      <c s="16" t="str" r="G54"/>
       <c s="4" t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">137678485</t>
+          <t xml:space="preserve">23.1</t>
         </is>
       </c>
       <c s="10" r="I54">
-        <v>1515</v>
-      </c>
-      <c s="4" t="inlineStr" r="J54">
-        <is>
-          <t xml:space="preserve">1515</t>
-        </is>
-      </c>
+        <v>937</v>
+      </c>
+      <c s="4" t="str" r="J54"/>
       <c s="6" t="str" r="K54"/>
     </row>
     <row r="55" ht="18" customHeight="0">
-      <c s="14" t="str" r="B55"/>
-      <c s="11" t="str" r="C55"/>
-      <c s="12" t="str" r="D55"/>
-      <c s="13" t="str" r="E55"/>
-      <c s="4" t="inlineStr" r="F55">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G55"/>
+      <c s="11" t="str" r="B55"/>
+      <c s="15" t="str" r="C55"/>
+      <c s="16" t="str" r="E55"/>
+      <c s="15" t="str" r="F55"/>
+      <c s="16" t="str" r="G55"/>
       <c s="4" t="inlineStr" r="H55">
         <is>
-          <t xml:space="preserve">16.7</t>
+          <t xml:space="preserve">13.9</t>
         </is>
       </c>
       <c s="10" r="I55">
-        <v>2012</v>
-      </c>
-      <c s="4" t="inlineStr" r="J55">
-        <is>
-          <t xml:space="preserve">2012</t>
-        </is>
-      </c>
+        <v>649</v>
+      </c>
+      <c s="4" t="str" r="J55"/>
       <c s="6" t="str" r="K55"/>
     </row>
     <row r="56" ht="18" customHeight="0">
-      <c s="14" t="str" r="B56"/>
-      <c s="4" t="inlineStr" r="C56">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D56"/>
-      <c s="9" t="str" r="E56"/>
-      <c s="4" t="inlineStr" r="F56">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G56"/>
+      <c s="11" t="str" r="B56"/>
+      <c s="15" t="str" r="C56"/>
+      <c s="16" t="str" r="E56"/>
+      <c s="15" t="str" r="F56"/>
+      <c s="16" t="str" r="G56"/>
       <c s="4" t="inlineStr" r="H56">
         <is>
-          <t xml:space="preserve">137664798</t>
+          <t xml:space="preserve">32.2</t>
         </is>
       </c>
       <c s="10" r="I56">
-        <v>985</v>
-      </c>
-      <c s="4" t="inlineStr" r="J56">
-        <is>
-          <t xml:space="preserve">1482</t>
-        </is>
-      </c>
+        <v>485</v>
+      </c>
+      <c s="4" t="str" r="J56"/>
       <c s="6" t="str" r="K56"/>
     </row>
     <row r="57" ht="18" customHeight="0">
-      <c s="14" t="str" r="B57"/>
+      <c s="11" t="str" r="B57"/>
       <c s="15" t="str" r="C57"/>
       <c s="16" t="str" r="E57"/>
-      <c s="11" t="str" r="F57"/>
-      <c s="13" t="str" r="G57"/>
+      <c s="15" t="str" r="F57"/>
+      <c s="16" t="str" r="G57"/>
       <c s="4" t="inlineStr" r="H57">
         <is>
-          <t xml:space="preserve">137678485</t>
+          <t xml:space="preserve">32.1</t>
         </is>
       </c>
       <c s="10" r="I57">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c s="4" t="str" r="J57"/>
       <c s="6" t="str" r="K57"/>
     </row>
     <row r="58" ht="18" customHeight="0">
-      <c s="7" t="str" r="B58"/>
-      <c s="11" t="str" r="C58"/>
-      <c s="12" t="str" r="D58"/>
-      <c s="13" t="str" r="E58"/>
-      <c s="4" t="inlineStr" r="F58">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G58"/>
+      <c s="11" t="str" r="B58"/>
+      <c s="15" t="str" r="C58"/>
+      <c s="16" t="str" r="E58"/>
+      <c s="15" t="str" r="F58"/>
+      <c s="16" t="str" r="G58"/>
       <c s="4" t="inlineStr" r="H58">
         <is>
-          <t xml:space="preserve">27.11</t>
+          <t xml:space="preserve">34.1</t>
         </is>
       </c>
       <c s="10" r="I58">
-        <v>985</v>
-      </c>
-      <c s="4" t="inlineStr" r="J58">
-        <is>
-          <t xml:space="preserve">985</t>
-        </is>
-      </c>
+        <v>416</v>
+      </c>
+      <c s="4" t="str" r="J58"/>
       <c s="6" t="str" r="K58"/>
     </row>
     <row r="59" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B59">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-048</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C59">
+      <c s="7" t="str" r="B59"/>
+      <c s="12" t="str" r="C59"/>
+      <c s="13" t="str" r="D59"/>
+      <c s="14" t="str" r="E59"/>
+      <c s="12" t="str" r="F59"/>
+      <c s="14" t="str" r="G59"/>
+      <c s="4" t="inlineStr" r="H59">
+        <is>
+          <t xml:space="preserve">21.1</t>
+        </is>
+      </c>
+      <c s="10" r="I59">
+        <v>381</v>
+      </c>
+      <c s="4" t="str" r="J59"/>
+      <c s="6" t="str" r="K59"/>
+    </row>
+    <row r="60" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-024EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C60">
         <is>
           <t xml:space="preserve">822C</t>
         </is>
       </c>
-      <c s="8" t="str" r="D59"/>
-      <c s="9" t="str" r="E59"/>
-      <c s="4" t="inlineStr" r="F59">
+      <c s="8" t="str" r="D60"/>
+      <c s="9" t="str" r="E60"/>
+      <c s="4" t="inlineStr" r="F60">
         <is>
           <t xml:space="preserve">feature</t>
         </is>
       </c>
-      <c s="9" t="str" r="G59"/>
-      <c s="4" t="inlineStr" r="H59">
-        <is>
-          <t xml:space="preserve">137678414</t>
-        </is>
-      </c>
-      <c s="10" r="I59">
-        <v>2661</v>
-      </c>
-      <c s="4" t="inlineStr" r="J59">
-        <is>
-          <t xml:space="preserve">7188</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K59"/>
-    </row>
-    <row r="60" ht="18" customHeight="0">
-      <c s="14" t="str" r="B60"/>
-      <c s="15" t="str" r="C60"/>
-      <c s="16" t="str" r="E60"/>
-      <c s="15" t="str" r="F60"/>
-      <c s="16" t="str" r="G60"/>
+      <c s="9" t="str" r="G60"/>
       <c s="4" t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">137678191</t>
+          <t xml:space="preserve">137659324</t>
         </is>
       </c>
       <c s="10" r="I60">
-        <v>1287</v>
-      </c>
-      <c s="4" t="str" r="J60"/>
+        <v>2094</v>
+      </c>
+      <c s="4" t="inlineStr" r="J60">
+        <is>
+          <t xml:space="preserve">3609</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K60"/>
     </row>
     <row r="61" ht="18" customHeight="0">
-      <c s="14" t="str" r="B61"/>
+      <c s="11" t="str" r="B61"/>
       <c s="15" t="str" r="C61"/>
       <c s="16" t="str" r="E61"/>
-      <c s="15" t="str" r="F61"/>
-      <c s="16" t="str" r="G61"/>
+      <c s="12" t="str" r="F61"/>
+      <c s="14" t="str" r="G61"/>
       <c s="4" t="inlineStr" r="H61">
         <is>
-          <t xml:space="preserve">137678136</t>
+          <t xml:space="preserve">137678485</t>
         </is>
       </c>
       <c s="10" r="I61">
-        <v>1129</v>
+        <v>1515</v>
       </c>
       <c s="4" t="str" r="J61"/>
       <c s="6" t="str" r="K61"/>
     </row>
     <row r="62" ht="18" customHeight="0">
-      <c s="14" t="str" r="B62"/>
+      <c s="11" t="str" r="B62"/>
       <c s="15" t="str" r="C62"/>
       <c s="16" t="str" r="E62"/>
-      <c s="15" t="str" r="F62"/>
-      <c s="16" t="str" r="G62"/>
+      <c s="4" t="inlineStr" r="F62">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G62"/>
       <c s="4" t="inlineStr" r="H62">
         <is>
-          <t xml:space="preserve">137678015</t>
+          <t xml:space="preserve">6.2</t>
         </is>
       </c>
       <c s="10" r="I62">
-        <v>929</v>
-      </c>
-      <c s="4" t="str" r="J62"/>
+        <v>2235</v>
+      </c>
+      <c s="4" t="inlineStr" r="J62">
+        <is>
+          <t xml:space="preserve">4247</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K62"/>
     </row>
     <row r="63" ht="18" customHeight="0">
-      <c s="14" t="str" r="B63"/>
-      <c s="15" t="str" r="C63"/>
-      <c s="16" t="str" r="E63"/>
-      <c s="15" t="str" r="F63"/>
-      <c s="16" t="str" r="G63"/>
+      <c s="11" t="str" r="B63"/>
+      <c s="12" t="str" r="C63"/>
+      <c s="13" t="str" r="D63"/>
+      <c s="14" t="str" r="E63"/>
+      <c s="12" t="str" r="F63"/>
+      <c s="14" t="str" r="G63"/>
       <c s="4" t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">137678059</t>
+          <t xml:space="preserve">16.7</t>
         </is>
       </c>
       <c s="10" r="I63">
-        <v>890</v>
+        <v>2012</v>
       </c>
       <c s="4" t="str" r="J63"/>
       <c s="6" t="str" r="K63"/>
     </row>
     <row r="64" ht="18" customHeight="0">
-      <c s="14" t="str" r="B64"/>
-      <c s="15" t="str" r="C64"/>
-      <c s="16" t="str" r="E64"/>
-      <c s="11" t="str" r="F64"/>
-      <c s="13" t="str" r="G64"/>
+      <c s="11" t="str" r="B64"/>
+      <c s="4" t="inlineStr" r="C64">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D64"/>
+      <c s="9" t="str" r="E64"/>
+      <c s="4" t="inlineStr" r="F64">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G64"/>
       <c s="4" t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">137678114</t>
+          <t xml:space="preserve">138048316</t>
         </is>
       </c>
       <c s="10" r="I64">
-        <v>292</v>
-      </c>
-      <c s="4" t="str" r="J64"/>
+        <v>700</v>
+      </c>
+      <c s="4" t="inlineStr" r="J64">
+        <is>
+          <t xml:space="preserve">1449</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K64"/>
     </row>
     <row r="65" ht="18" customHeight="0">
-      <c s="14" t="str" r="B65"/>
+      <c s="11" t="str" r="B65"/>
       <c s="15" t="str" r="C65"/>
       <c s="16" t="str" r="E65"/>
-      <c s="4" t="inlineStr" r="F65">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G65"/>
+      <c s="15" t="str" r="F65"/>
+      <c s="16" t="str" r="G65"/>
       <c s="4" t="inlineStr" r="H65">
         <is>
-          <t xml:space="preserve">11.5</t>
+          <t xml:space="preserve">137678485</t>
         </is>
       </c>
       <c s="10" r="I65">
-        <v>2661</v>
-      </c>
-      <c s="4" t="inlineStr" r="J65">
-        <is>
-          <t xml:space="preserve">7188</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c s="4" t="str" r="J65"/>
       <c s="6" t="str" r="K65"/>
     </row>
     <row r="66" ht="18" customHeight="0">
-      <c s="14" t="str" r="B66"/>
+      <c s="11" t="str" r="B66"/>
       <c s="15" t="str" r="C66"/>
       <c s="16" t="str" r="E66"/>
       <c s="15" t="str" r="F66"/>
       <c s="16" t="str" r="G66"/>
       <c s="4" t="inlineStr" r="H66">
         <is>
-          <t xml:space="preserve">31.1</t>
+          <t xml:space="preserve">137659324</t>
         </is>
       </c>
       <c s="10" r="I66">
-        <v>2350</v>
+        <v>141</v>
       </c>
       <c s="4" t="str" r="J66"/>
       <c s="6" t="str" r="K66"/>
     </row>
     <row r="67" ht="18" customHeight="0">
-      <c s="7" t="str" r="B67"/>
-      <c s="11" t="str" r="C67"/>
-      <c s="12" t="str" r="D67"/>
-      <c s="13" t="str" r="E67"/>
-      <c s="11" t="str" r="F67"/>
-      <c s="13" t="str" r="G67"/>
-      <c s="4" t="inlineStr" r="H67">
-        <is>
-          <t xml:space="preserve">33.1</t>
-        </is>
-      </c>
+      <c s="11" t="str" r="B67"/>
+      <c s="15" t="str" r="C67"/>
+      <c s="16" t="str" r="E67"/>
+      <c s="15" t="str" r="F67"/>
+      <c s="16" t="str" r="G67"/>
+      <c s="7" t="str" r="H67"/>
       <c s="10" r="I67">
-        <v>2177</v>
+        <v>0</v>
       </c>
       <c s="4" t="str" r="J67"/>
       <c s="6" t="str" r="K67"/>
     </row>
     <row r="68" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B68">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-048EUC</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C68">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="5" t="str" r="D68"/>
-      <c s="6" t="str" r="E68"/>
-      <c s="4" t="inlineStr" r="F68">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G68"/>
+      <c s="11" t="str" r="B68"/>
+      <c s="15" t="str" r="C68"/>
+      <c s="16" t="str" r="E68"/>
+      <c s="12" t="str" r="F68"/>
+      <c s="14" t="str" r="G68"/>
       <c s="4" t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">137659095</t>
+          <t xml:space="preserve">138048266</t>
         </is>
       </c>
       <c s="10" r="I68">
-        <v>275</v>
-      </c>
-      <c s="4" t="inlineStr" r="J68">
-        <is>
-          <t xml:space="preserve">275</t>
-        </is>
-      </c>
+        <v>111</v>
+      </c>
+      <c s="4" t="str" r="J68"/>
       <c s="6" t="str" r="K68"/>
     </row>
     <row r="69" ht="18" customHeight="0">
-      <c s="14" t="str" r="B69"/>
-      <c s="4" t="inlineStr" r="C69">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D69"/>
-      <c s="9" t="str" r="E69"/>
+      <c s="11" t="str" r="B69"/>
+      <c s="15" t="str" r="C69"/>
+      <c s="16" t="str" r="E69"/>
       <c s="4" t="inlineStr" r="F69">
         <is>
-          <t xml:space="preserve">feature</t>
+          <t xml:space="preserve">task</t>
         </is>
       </c>
       <c s="9" t="str" r="G69"/>
       <c s="4" t="inlineStr" r="H69">
         <is>
-          <t xml:space="preserve">137664751</t>
+          <t xml:space="preserve">38.16</t>
         </is>
       </c>
       <c s="10" r="I69">
-        <v>1728</v>
+        <v>700</v>
       </c>
       <c s="4" t="inlineStr" r="J69">
         <is>
-          <t xml:space="preserve">4587</t>
+          <t xml:space="preserve">811</t>
         </is>
       </c>
       <c s="6" t="str" r="K69"/>
     </row>
     <row r="70" ht="18" customHeight="0">
-      <c s="14" t="str" r="B70"/>
-      <c s="15" t="str" r="C70"/>
-      <c s="16" t="str" r="E70"/>
-      <c s="15" t="str" r="F70"/>
-      <c s="16" t="str" r="G70"/>
+      <c s="7" t="str" r="B70"/>
+      <c s="12" t="str" r="C70"/>
+      <c s="13" t="str" r="D70"/>
+      <c s="14" t="str" r="E70"/>
+      <c s="12" t="str" r="F70"/>
+      <c s="14" t="str" r="G70"/>
       <c s="4" t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">137659061</t>
+          <t xml:space="preserve">38.15</t>
         </is>
       </c>
       <c s="10" r="I70">
-        <v>1598</v>
+        <v>111</v>
       </c>
       <c s="4" t="str" r="J70"/>
       <c s="6" t="str" r="K70"/>
     </row>
     <row r="71" ht="18" customHeight="0">
-      <c s="14" t="str" r="B71"/>
-      <c s="15" t="str" r="C71"/>
-      <c s="16" t="str" r="E71"/>
-      <c s="11" t="str" r="F71"/>
-      <c s="13" t="str" r="G71"/>
+      <c s="4" t="inlineStr" r="B71">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-048</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C71">
+        <is>
+          <t xml:space="preserve">822C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D71"/>
+      <c s="9" t="str" r="E71"/>
+      <c s="4" t="inlineStr" r="F71">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G71"/>
       <c s="4" t="inlineStr" r="H71">
         <is>
-          <t xml:space="preserve">137659095</t>
+          <t xml:space="preserve">137678414</t>
         </is>
       </c>
       <c s="10" r="I71">
-        <v>1261</v>
-      </c>
-      <c s="4" t="str" r="J71"/>
+        <v>2661</v>
+      </c>
+      <c s="4" t="inlineStr" r="J71">
+        <is>
+          <t xml:space="preserve">7188</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K71"/>
     </row>
     <row r="72" ht="18" customHeight="0">
-      <c s="14" t="str" r="B72"/>
+      <c s="11" t="str" r="B72"/>
       <c s="15" t="str" r="C72"/>
       <c s="16" t="str" r="E72"/>
-      <c s="4" t="inlineStr" r="F72">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G72"/>
+      <c s="15" t="str" r="F72"/>
+      <c s="16" t="str" r="G72"/>
       <c s="4" t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">26.9</t>
+          <t xml:space="preserve">137678191</t>
         </is>
       </c>
       <c s="10" r="I72">
-        <v>1728</v>
-      </c>
-      <c s="4" t="inlineStr" r="J72">
-        <is>
-          <t xml:space="preserve">4862</t>
-        </is>
-      </c>
+        <v>1287</v>
+      </c>
+      <c s="4" t="str" r="J72"/>
       <c s="6" t="str" r="K72"/>
     </row>
     <row r="73" ht="18" customHeight="0">
-      <c s="14" t="str" r="B73"/>
+      <c s="11" t="str" r="B73"/>
       <c s="15" t="str" r="C73"/>
       <c s="16" t="str" r="E73"/>
       <c s="15" t="str" r="F73"/>
       <c s="16" t="str" r="G73"/>
       <c s="4" t="inlineStr" r="H73">
         <is>
-          <t xml:space="preserve">8.1</t>
+          <t xml:space="preserve">137678136</t>
         </is>
       </c>
       <c s="10" r="I73">
-        <v>1598</v>
+        <v>1129</v>
       </c>
       <c s="4" t="str" r="J73"/>
       <c s="6" t="str" r="K73"/>
     </row>
     <row r="74" ht="18" customHeight="0">
-      <c s="7" t="str" r="B74"/>
-      <c s="11" t="str" r="C74"/>
-      <c s="12" t="str" r="D74"/>
-      <c s="13" t="str" r="E74"/>
-      <c s="11" t="str" r="F74"/>
-      <c s="13" t="str" r="G74"/>
+      <c s="11" t="str" r="B74"/>
+      <c s="15" t="str" r="C74"/>
+      <c s="16" t="str" r="E74"/>
+      <c s="15" t="str" r="F74"/>
+      <c s="16" t="str" r="G74"/>
       <c s="4" t="inlineStr" r="H74">
         <is>
-          <t xml:space="preserve">8.2</t>
+          <t xml:space="preserve">137678015</t>
         </is>
       </c>
       <c s="10" r="I74">
-        <v>1536</v>
+        <v>929</v>
       </c>
       <c s="4" t="str" r="J74"/>
       <c s="6" t="str" r="K74"/>
     </row>
     <row r="75" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B75">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-072</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C75">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D75"/>
-      <c s="9" t="str" r="E75"/>
-      <c s="4" t="inlineStr" r="F75">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G75"/>
+      <c s="11" t="str" r="B75"/>
+      <c s="15" t="str" r="C75"/>
+      <c s="16" t="str" r="E75"/>
+      <c s="15" t="str" r="F75"/>
+      <c s="16" t="str" r="G75"/>
       <c s="4" t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">137678472</t>
+          <t xml:space="preserve">137678059</t>
         </is>
       </c>
       <c s="10" r="I75">
-        <v>1799</v>
-      </c>
-      <c s="4" t="inlineStr" r="J75">
-        <is>
-          <t xml:space="preserve">3394</t>
-        </is>
-      </c>
+        <v>890</v>
+      </c>
+      <c s="4" t="str" r="J75"/>
       <c s="6" t="str" r="K75"/>
     </row>
     <row r="76" ht="18" customHeight="0">
-      <c s="14" t="str" r="B76"/>
+      <c s="11" t="str" r="B76"/>
       <c s="15" t="str" r="C76"/>
       <c s="16" t="str" r="E76"/>
-      <c s="11" t="str" r="F76"/>
-      <c s="13" t="str" r="G76"/>
+      <c s="12" t="str" r="F76"/>
+      <c s="14" t="str" r="G76"/>
       <c s="4" t="inlineStr" r="H76">
         <is>
-          <t xml:space="preserve">137678039</t>
+          <t xml:space="preserve">137678114</t>
         </is>
       </c>
       <c s="10" r="I76">
-        <v>1595</v>
+        <v>292</v>
       </c>
       <c s="4" t="str" r="J76"/>
       <c s="6" t="str" r="K76"/>
     </row>
     <row r="77" ht="18" customHeight="0">
-      <c s="14" t="str" r="B77"/>
+      <c s="11" t="str" r="B77"/>
       <c s="15" t="str" r="C77"/>
       <c s="16" t="str" r="E77"/>
       <c s="4" t="inlineStr" r="F77">
@@ -1677,251 +1649,216 @@
       <c s="9" t="str" r="G77"/>
       <c s="4" t="inlineStr" r="H77">
         <is>
-          <t xml:space="preserve">11.6</t>
+          <t xml:space="preserve">11.5</t>
         </is>
       </c>
       <c s="10" r="I77">
-        <v>1799</v>
+        <v>2661</v>
       </c>
       <c s="4" t="inlineStr" r="J77">
         <is>
-          <t xml:space="preserve">3394</t>
+          <t xml:space="preserve">7188</t>
         </is>
       </c>
       <c s="6" t="str" r="K77"/>
     </row>
     <row r="78" ht="18" customHeight="0">
-      <c s="7" t="str" r="B78"/>
-      <c s="11" t="str" r="C78"/>
-      <c s="12" t="str" r="D78"/>
-      <c s="13" t="str" r="E78"/>
-      <c s="11" t="str" r="F78"/>
-      <c s="13" t="str" r="G78"/>
+      <c s="11" t="str" r="B78"/>
+      <c s="15" t="str" r="C78"/>
+      <c s="16" t="str" r="E78"/>
+      <c s="15" t="str" r="F78"/>
+      <c s="16" t="str" r="G78"/>
       <c s="4" t="inlineStr" r="H78">
         <is>
-          <t xml:space="preserve">31.2</t>
+          <t xml:space="preserve">31.1</t>
         </is>
       </c>
       <c s="10" r="I78">
-        <v>1595</v>
+        <v>2350</v>
       </c>
       <c s="4" t="str" r="J78"/>
       <c s="6" t="str" r="K78"/>
     </row>
     <row r="79" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B79">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-072EUC</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C79">
+      <c s="7" t="str" r="B79"/>
+      <c s="12" t="str" r="C79"/>
+      <c s="13" t="str" r="D79"/>
+      <c s="14" t="str" r="E79"/>
+      <c s="12" t="str" r="F79"/>
+      <c s="14" t="str" r="G79"/>
+      <c s="4" t="inlineStr" r="H79">
+        <is>
+          <t xml:space="preserve">33.1</t>
+        </is>
+      </c>
+      <c s="10" r="I79">
+        <v>2177</v>
+      </c>
+      <c s="4" t="str" r="J79"/>
+      <c s="6" t="str" r="K79"/>
+    </row>
+    <row r="80" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B80">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-048EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C80">
+        <is>
+          <t xml:space="preserve">822C</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="D80"/>
+      <c s="6" t="str" r="E80"/>
+      <c s="4" t="inlineStr" r="F80">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G80"/>
+      <c s="4" t="inlineStr" r="H80">
+        <is>
+          <t xml:space="preserve">137659095</t>
+        </is>
+      </c>
+      <c s="10" r="I80">
+        <v>275</v>
+      </c>
+      <c s="4" t="inlineStr" r="J80">
+        <is>
+          <t xml:space="preserve">275</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K80"/>
+    </row>
+    <row r="81" ht="18" customHeight="0">
+      <c s="11" t="str" r="B81"/>
+      <c s="4" t="inlineStr" r="C81">
         <is>
           <t xml:space="preserve">845C</t>
         </is>
       </c>
-      <c s="8" t="str" r="D79"/>
-      <c s="9" t="str" r="E79"/>
-      <c s="4" t="inlineStr" r="F79">
+      <c s="8" t="str" r="D81"/>
+      <c s="9" t="str" r="E81"/>
+      <c s="4" t="inlineStr" r="F81">
         <is>
           <t xml:space="preserve">feature</t>
         </is>
       </c>
-      <c s="9" t="str" r="G79"/>
-      <c s="4" t="inlineStr" r="H79">
-        <is>
-          <t xml:space="preserve">137658980</t>
-        </is>
-      </c>
-      <c s="10" r="I79">
-        <v>1771</v>
-      </c>
-      <c s="4" t="inlineStr" r="J79">
-        <is>
-          <t xml:space="preserve">1771</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K79"/>
-    </row>
-    <row r="80" ht="18" customHeight="0">
-      <c s="14" t="str" r="B80"/>
-      <c s="15" t="str" r="C80"/>
-      <c s="16" t="str" r="E80"/>
-      <c s="11" t="str" r="F80"/>
-      <c s="13" t="str" r="G80"/>
-      <c s="7" t="str" r="H80"/>
-      <c s="10" r="I80">
-        <v>0</v>
-      </c>
-      <c s="4" t="str" r="J80"/>
-      <c s="6" t="str" r="K80"/>
-    </row>
-    <row r="81" ht="18" customHeight="0">
-      <c s="7" t="str" r="B81"/>
-      <c s="11" t="str" r="C81"/>
-      <c s="12" t="str" r="D81"/>
-      <c s="13" t="str" r="E81"/>
-      <c s="4" t="inlineStr" r="F81">
+      <c s="9" t="str" r="G81"/>
+      <c s="4" t="inlineStr" r="H81">
+        <is>
+          <t xml:space="preserve">137659061</t>
+        </is>
+      </c>
+      <c s="10" r="I81">
+        <v>1598</v>
+      </c>
+      <c s="4" t="inlineStr" r="J81">
+        <is>
+          <t xml:space="preserve">4387</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K81"/>
+    </row>
+    <row r="82" ht="18" customHeight="0">
+      <c s="11" t="str" r="B82"/>
+      <c s="15" t="str" r="C82"/>
+      <c s="16" t="str" r="E82"/>
+      <c s="15" t="str" r="F82"/>
+      <c s="16" t="str" r="G82"/>
+      <c s="4" t="inlineStr" r="H82">
+        <is>
+          <t xml:space="preserve">138048117</t>
+        </is>
+      </c>
+      <c s="10" r="I82">
+        <v>1528</v>
+      </c>
+      <c s="4" t="str" r="J82"/>
+      <c s="6" t="str" r="K82"/>
+    </row>
+    <row r="83" ht="18" customHeight="0">
+      <c s="11" t="str" r="B83"/>
+      <c s="15" t="str" r="C83"/>
+      <c s="16" t="str" r="E83"/>
+      <c s="12" t="str" r="F83"/>
+      <c s="14" t="str" r="G83"/>
+      <c s="4" t="inlineStr" r="H83">
+        <is>
+          <t xml:space="preserve">137659095</t>
+        </is>
+      </c>
+      <c s="10" r="I83">
+        <v>1261</v>
+      </c>
+      <c s="4" t="str" r="J83"/>
+      <c s="6" t="str" r="K83"/>
+    </row>
+    <row r="84" ht="18" customHeight="0">
+      <c s="11" t="str" r="B84"/>
+      <c s="15" t="str" r="C84"/>
+      <c s="16" t="str" r="E84"/>
+      <c s="4" t="inlineStr" r="F84">
         <is>
           <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G81"/>
-      <c s="4" t="inlineStr" r="H81">
-        <is>
-          <t xml:space="preserve">6.1</t>
-        </is>
-      </c>
-      <c s="10" r="I81">
-        <v>1771</v>
-      </c>
-      <c s="4" t="inlineStr" r="J81">
-        <is>
-          <t xml:space="preserve">1771</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K81"/>
-    </row>
-    <row r="82" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B82">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-144</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C82">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D82"/>
-      <c s="9" t="str" r="E82"/>
-      <c s="4" t="inlineStr" r="F82">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G82"/>
-      <c s="4" t="inlineStr" r="H82">
-        <is>
-          <t xml:space="preserve">137669138</t>
-        </is>
-      </c>
-      <c s="10" r="I82">
-        <v>1879</v>
-      </c>
-      <c s="4" t="inlineStr" r="J82">
-        <is>
-          <t xml:space="preserve">1879</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K82"/>
-    </row>
-    <row r="83" ht="18" customHeight="0">
-      <c s="7" t="str" r="B83"/>
-      <c s="11" t="str" r="C83"/>
-      <c s="12" t="str" r="D83"/>
-      <c s="13" t="str" r="E83"/>
-      <c s="4" t="inlineStr" r="F83">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G83"/>
-      <c s="4" t="inlineStr" r="H83">
-        <is>
-          <t xml:space="preserve">26.8</t>
-        </is>
-      </c>
-      <c s="10" r="I83">
-        <v>1879</v>
-      </c>
-      <c s="4" t="inlineStr" r="J83">
-        <is>
-          <t xml:space="preserve">1879</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="K83"/>
-    </row>
-    <row r="84" ht="18" customHeight="0">
-      <c s="4" t="inlineStr" r="B84">
-        <is>
-          <t xml:space="preserve">FNAP-CBL-216EUC</t>
-        </is>
-      </c>
-      <c s="4" t="inlineStr" r="C84">
-        <is>
-          <t xml:space="preserve">822C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D84"/>
-      <c s="9" t="str" r="E84"/>
-      <c s="4" t="inlineStr" r="F84">
-        <is>
-          <t xml:space="preserve">feature</t>
         </is>
       </c>
       <c s="9" t="str" r="G84"/>
       <c s="4" t="inlineStr" r="H84">
         <is>
-          <t xml:space="preserve">137659615</t>
+          <t xml:space="preserve">8.1</t>
         </is>
       </c>
       <c s="10" r="I84">
-        <v>1966</v>
+        <v>1598</v>
       </c>
       <c s="4" t="inlineStr" r="J84">
         <is>
-          <t xml:space="preserve">2799</t>
+          <t xml:space="preserve">4662</t>
         </is>
       </c>
       <c s="6" t="str" r="K84"/>
     </row>
     <row r="85" ht="18" customHeight="0">
-      <c s="14" t="str" r="B85"/>
+      <c s="11" t="str" r="B85"/>
       <c s="15" t="str" r="C85"/>
       <c s="16" t="str" r="E85"/>
-      <c s="11" t="str" r="F85"/>
-      <c s="13" t="str" r="G85"/>
+      <c s="15" t="str" r="F85"/>
+      <c s="16" t="str" r="G85"/>
       <c s="4" t="inlineStr" r="H85">
         <is>
-          <t xml:space="preserve">137678303</t>
+          <t xml:space="preserve">8.2</t>
         </is>
       </c>
       <c s="10" r="I85">
-        <v>833</v>
+        <v>1536</v>
       </c>
       <c s="4" t="str" r="J85"/>
       <c s="6" t="str" r="K85"/>
     </row>
     <row r="86" ht="18" customHeight="0">
       <c s="7" t="str" r="B86"/>
-      <c s="11" t="str" r="C86"/>
-      <c s="12" t="str" r="D86"/>
-      <c s="13" t="str" r="E86"/>
-      <c s="4" t="inlineStr" r="F86">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="6" t="str" r="G86"/>
+      <c s="12" t="str" r="C86"/>
+      <c s="13" t="str" r="D86"/>
+      <c s="14" t="str" r="E86"/>
+      <c s="12" t="str" r="F86"/>
+      <c s="14" t="str" r="G86"/>
       <c s="4" t="inlineStr" r="H86">
         <is>
-          <t xml:space="preserve">23.2</t>
+          <t xml:space="preserve">29.6</t>
         </is>
       </c>
       <c s="10" r="I86">
-        <v>2799</v>
-      </c>
-      <c s="4" t="inlineStr" r="J86">
-        <is>
-          <t xml:space="preserve">2799</t>
-        </is>
-      </c>
+        <v>1528</v>
+      </c>
+      <c s="4" t="str" r="J86"/>
       <c s="6" t="str" r="K86"/>
     </row>
     <row r="87" ht="18" customHeight="0">
       <c s="4" t="inlineStr" r="B87">
         <is>
-          <t xml:space="preserve">FNAP-CBL-432EUC</t>
+          <t xml:space="preserve">FNAP-CBL-072</t>
         </is>
       </c>
       <c s="4" t="inlineStr" r="C87">
@@ -1939,301 +1876,650 @@
       <c s="9" t="str" r="G87"/>
       <c s="4" t="inlineStr" r="H87">
         <is>
-          <t xml:space="preserve">137659324</t>
+          <t xml:space="preserve">137678472</t>
         </is>
       </c>
       <c s="10" r="I87">
-        <v>2119</v>
+        <v>1799</v>
       </c>
       <c s="4" t="inlineStr" r="J87">
         <is>
-          <t xml:space="preserve">5000</t>
+          <t xml:space="preserve">3394</t>
         </is>
       </c>
       <c s="6" t="str" r="K87"/>
     </row>
     <row r="88" ht="18" customHeight="0">
-      <c s="14" t="str" r="B88"/>
+      <c s="11" t="str" r="B88"/>
       <c s="15" t="str" r="C88"/>
       <c s="16" t="str" r="E88"/>
-      <c s="15" t="str" r="F88"/>
-      <c s="16" t="str" r="G88"/>
+      <c s="12" t="str" r="F88"/>
+      <c s="14" t="str" r="G88"/>
       <c s="4" t="inlineStr" r="H88">
         <is>
-          <t xml:space="preserve">137659484</t>
+          <t xml:space="preserve">137678039</t>
         </is>
       </c>
       <c s="10" r="I88">
-        <v>1733</v>
+        <v>1595</v>
       </c>
       <c s="4" t="str" r="J88"/>
       <c s="6" t="str" r="K88"/>
     </row>
     <row r="89" ht="18" customHeight="0">
-      <c s="14" t="str" r="B89"/>
+      <c s="11" t="str" r="B89"/>
       <c s="15" t="str" r="C89"/>
       <c s="16" t="str" r="E89"/>
-      <c s="11" t="str" r="F89"/>
-      <c s="13" t="str" r="G89"/>
+      <c s="4" t="inlineStr" r="F89">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G89"/>
       <c s="4" t="inlineStr" r="H89">
         <is>
-          <t xml:space="preserve">137659428</t>
+          <t xml:space="preserve">11.6</t>
         </is>
       </c>
       <c s="10" r="I89">
-        <v>1148</v>
-      </c>
-      <c s="4" t="str" r="J89"/>
+        <v>1799</v>
+      </c>
+      <c s="4" t="inlineStr" r="J89">
+        <is>
+          <t xml:space="preserve">3394</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K89"/>
     </row>
     <row r="90" ht="18" customHeight="0">
-      <c s="14" t="str" r="B90"/>
-      <c s="15" t="str" r="C90"/>
-      <c s="16" t="str" r="E90"/>
-      <c s="4" t="inlineStr" r="F90">
-        <is>
-          <t xml:space="preserve">task</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G90"/>
+      <c s="7" t="str" r="B90"/>
+      <c s="12" t="str" r="C90"/>
+      <c s="13" t="str" r="D90"/>
+      <c s="14" t="str" r="E90"/>
+      <c s="12" t="str" r="F90"/>
+      <c s="14" t="str" r="G90"/>
       <c s="4" t="inlineStr" r="H90">
         <is>
-          <t xml:space="preserve">8.4</t>
+          <t xml:space="preserve">31.2</t>
         </is>
       </c>
       <c s="10" r="I90">
-        <v>2881</v>
-      </c>
-      <c s="4" t="inlineStr" r="J90">
-        <is>
-          <t xml:space="preserve">5141</t>
-        </is>
-      </c>
+        <v>1595</v>
+      </c>
+      <c s="4" t="str" r="J90"/>
       <c s="6" t="str" r="K90"/>
     </row>
     <row r="91" ht="18" customHeight="0">
-      <c s="14" t="str" r="B91"/>
-      <c s="11" t="str" r="C91"/>
-      <c s="12" t="str" r="D91"/>
-      <c s="13" t="str" r="E91"/>
-      <c s="11" t="str" r="F91"/>
-      <c s="13" t="str" r="G91"/>
+      <c s="4" t="inlineStr" r="B91">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-072EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C91">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D91"/>
+      <c s="9" t="str" r="E91"/>
+      <c s="4" t="inlineStr" r="F91">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G91"/>
       <c s="4" t="inlineStr" r="H91">
         <is>
-          <t xml:space="preserve">6.2</t>
+          <t xml:space="preserve">137658980</t>
         </is>
       </c>
       <c s="10" r="I91">
-        <v>2260</v>
-      </c>
-      <c s="4" t="str" r="J91"/>
+        <v>1771</v>
+      </c>
+      <c s="4" t="inlineStr" r="J91">
+        <is>
+          <t xml:space="preserve">4319</t>
+        </is>
+      </c>
       <c s="6" t="str" r="K91"/>
     </row>
     <row r="92" ht="18" customHeight="0">
-      <c s="14" t="str" r="B92"/>
-      <c s="4" t="inlineStr" r="C92">
-        <is>
-          <t xml:space="preserve">845C</t>
-        </is>
-      </c>
-      <c s="8" t="str" r="D92"/>
-      <c s="9" t="str" r="E92"/>
-      <c s="4" t="inlineStr" r="F92">
-        <is>
-          <t xml:space="preserve">feature</t>
-        </is>
-      </c>
-      <c s="9" t="str" r="G92"/>
-      <c s="4" t="inlineStr" r="H92">
-        <is>
-          <t xml:space="preserve">137659324</t>
-        </is>
-      </c>
+      <c s="11" t="str" r="B92"/>
+      <c s="15" t="str" r="C92"/>
+      <c s="16" t="str" r="E92"/>
+      <c s="15" t="str" r="F92"/>
+      <c s="16" t="str" r="G92"/>
+      <c s="7" t="str" r="H92"/>
       <c s="10" r="I92">
-        <v>141</v>
-      </c>
-      <c s="4" t="inlineStr" r="J92">
-        <is>
-          <t xml:space="preserve">141</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c s="4" t="str" r="J92"/>
       <c s="6" t="str" r="K92"/>
     </row>
     <row r="93" ht="18" customHeight="0">
-      <c s="7" t="str" r="B93"/>
-      <c s="11" t="str" r="C93"/>
-      <c s="12" t="str" r="D93"/>
-      <c s="13" t="str" r="E93"/>
-      <c s="11" t="str" r="F93"/>
-      <c s="13" t="str" r="G93"/>
-      <c s="7" t="str" r="H93"/>
+      <c s="11" t="str" r="B93"/>
+      <c s="15" t="str" r="C93"/>
+      <c s="16" t="str" r="E93"/>
+      <c s="15" t="str" r="F93"/>
+      <c s="16" t="str" r="G93"/>
+      <c s="4" t="inlineStr" r="H93">
+        <is>
+          <t xml:space="preserve">138045668</t>
+        </is>
+      </c>
       <c s="10" r="I93">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c s="4" t="str" r="J93"/>
       <c s="6" t="str" r="K93"/>
     </row>
-    <row r="94" ht="27.05" customHeight="1"/>
+    <row r="94" ht="18" customHeight="0">
+      <c s="11" t="str" r="B94"/>
+      <c s="15" t="str" r="C94"/>
+      <c s="16" t="str" r="E94"/>
+      <c s="12" t="str" r="F94"/>
+      <c s="14" t="str" r="G94"/>
+      <c s="4" t="inlineStr" r="H94">
+        <is>
+          <t xml:space="preserve">137664798</t>
+        </is>
+      </c>
+      <c s="10" r="I94">
+        <v>985</v>
+      </c>
+      <c s="4" t="str" r="J94"/>
+      <c s="6" t="str" r="K94"/>
+    </row>
+    <row r="95" ht="18" customHeight="0">
+      <c s="11" t="str" r="B95"/>
+      <c s="15" t="str" r="C95"/>
+      <c s="16" t="str" r="E95"/>
+      <c s="4" t="inlineStr" r="F95">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G95"/>
+      <c s="4" t="inlineStr" r="H95">
+        <is>
+          <t xml:space="preserve">6.1</t>
+        </is>
+      </c>
+      <c s="10" r="I95">
+        <v>1771</v>
+      </c>
+      <c s="4" t="inlineStr" r="J95">
+        <is>
+          <t xml:space="preserve">4319</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K95"/>
+    </row>
+    <row r="96" ht="18" customHeight="0">
+      <c s="11" t="str" r="B96"/>
+      <c s="15" t="str" r="C96"/>
+      <c s="16" t="str" r="E96"/>
+      <c s="15" t="str" r="F96"/>
+      <c s="16" t="str" r="G96"/>
+      <c s="4" t="inlineStr" r="H96">
+        <is>
+          <t xml:space="preserve">29.1</t>
+        </is>
+      </c>
+      <c s="10" r="I96">
+        <v>1563</v>
+      </c>
+      <c s="4" t="str" r="J96"/>
+      <c s="6" t="str" r="K96"/>
+    </row>
+    <row r="97" ht="18" customHeight="0">
+      <c s="7" t="str" r="B97"/>
+      <c s="12" t="str" r="C97"/>
+      <c s="13" t="str" r="D97"/>
+      <c s="14" t="str" r="E97"/>
+      <c s="12" t="str" r="F97"/>
+      <c s="14" t="str" r="G97"/>
+      <c s="4" t="inlineStr" r="H97">
+        <is>
+          <t xml:space="preserve">27.11</t>
+        </is>
+      </c>
+      <c s="10" r="I97">
+        <v>985</v>
+      </c>
+      <c s="4" t="str" r="J97"/>
+      <c s="6" t="str" r="K97"/>
+    </row>
+    <row r="98" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B98">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-144</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C98">
+        <is>
+          <t xml:space="preserve">822C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D98"/>
+      <c s="9" t="str" r="E98"/>
+      <c s="4" t="inlineStr" r="F98">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G98"/>
+      <c s="4" t="inlineStr" r="H98">
+        <is>
+          <t xml:space="preserve">137669138</t>
+        </is>
+      </c>
+      <c s="10" r="I98">
+        <v>1879</v>
+      </c>
+      <c s="4" t="inlineStr" r="J98">
+        <is>
+          <t xml:space="preserve">1879</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K98"/>
+    </row>
+    <row r="99" ht="18" customHeight="0">
+      <c s="7" t="str" r="B99"/>
+      <c s="12" t="str" r="C99"/>
+      <c s="13" t="str" r="D99"/>
+      <c s="14" t="str" r="E99"/>
+      <c s="4" t="inlineStr" r="F99">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G99"/>
+      <c s="4" t="inlineStr" r="H99">
+        <is>
+          <t xml:space="preserve">26.8</t>
+        </is>
+      </c>
+      <c s="10" r="I99">
+        <v>1879</v>
+      </c>
+      <c s="4" t="inlineStr" r="J99">
+        <is>
+          <t xml:space="preserve">1879</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K99"/>
+    </row>
+    <row r="100" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B100">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-144EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C100">
+        <is>
+          <t xml:space="preserve">845C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D100"/>
+      <c s="9" t="str" r="E100"/>
+      <c s="4" t="inlineStr" r="F100">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G100"/>
+      <c s="4" t="inlineStr" r="H100">
+        <is>
+          <t xml:space="preserve">137664751</t>
+        </is>
+      </c>
+      <c s="10" r="I100">
+        <v>1728</v>
+      </c>
+      <c s="4" t="inlineStr" r="J100">
+        <is>
+          <t xml:space="preserve">1728</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K100"/>
+    </row>
+    <row r="101" ht="18" customHeight="0">
+      <c s="7" t="str" r="B101"/>
+      <c s="12" t="str" r="C101"/>
+      <c s="13" t="str" r="D101"/>
+      <c s="14" t="str" r="E101"/>
+      <c s="4" t="inlineStr" r="F101">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="G101"/>
+      <c s="4" t="inlineStr" r="H101">
+        <is>
+          <t xml:space="preserve">26.9</t>
+        </is>
+      </c>
+      <c s="10" r="I101">
+        <v>1728</v>
+      </c>
+      <c s="4" t="inlineStr" r="J101">
+        <is>
+          <t xml:space="preserve">1728</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K101"/>
+    </row>
+    <row r="102" ht="18" customHeight="0">
+      <c s="4" t="inlineStr" r="B102">
+        <is>
+          <t xml:space="preserve">FNAP-CBL-432EUC</t>
+        </is>
+      </c>
+      <c s="4" t="inlineStr" r="C102">
+        <is>
+          <t xml:space="preserve">822C</t>
+        </is>
+      </c>
+      <c s="8" t="str" r="D102"/>
+      <c s="9" t="str" r="E102"/>
+      <c s="4" t="inlineStr" r="F102">
+        <is>
+          <t xml:space="preserve">feature</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G102"/>
+      <c s="4" t="inlineStr" r="H102">
+        <is>
+          <t xml:space="preserve">137659615</t>
+        </is>
+      </c>
+      <c s="10" r="I102">
+        <v>1966</v>
+      </c>
+      <c s="4" t="inlineStr" r="J102">
+        <is>
+          <t xml:space="preserve">5680</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K102"/>
+    </row>
+    <row r="103" ht="18" customHeight="0">
+      <c s="11" t="str" r="B103"/>
+      <c s="15" t="str" r="C103"/>
+      <c s="16" t="str" r="E103"/>
+      <c s="15" t="str" r="F103"/>
+      <c s="16" t="str" r="G103"/>
+      <c s="4" t="inlineStr" r="H103">
+        <is>
+          <t xml:space="preserve">137659484</t>
+        </is>
+      </c>
+      <c s="10" r="I103">
+        <v>1733</v>
+      </c>
+      <c s="4" t="str" r="J103"/>
+      <c s="6" t="str" r="K103"/>
+    </row>
+    <row r="104" ht="18" customHeight="0">
+      <c s="11" t="str" r="B104"/>
+      <c s="15" t="str" r="C104"/>
+      <c s="16" t="str" r="E104"/>
+      <c s="15" t="str" r="F104"/>
+      <c s="16" t="str" r="G104"/>
+      <c s="4" t="inlineStr" r="H104">
+        <is>
+          <t xml:space="preserve">137659428</t>
+        </is>
+      </c>
+      <c s="10" r="I104">
+        <v>1148</v>
+      </c>
+      <c s="4" t="str" r="J104"/>
+      <c s="6" t="str" r="K104"/>
+    </row>
+    <row r="105" ht="18" customHeight="0">
+      <c s="11" t="str" r="B105"/>
+      <c s="15" t="str" r="C105"/>
+      <c s="16" t="str" r="E105"/>
+      <c s="12" t="str" r="F105"/>
+      <c s="14" t="str" r="G105"/>
+      <c s="4" t="inlineStr" r="H105">
+        <is>
+          <t xml:space="preserve">137678303</t>
+        </is>
+      </c>
+      <c s="10" r="I105">
+        <v>833</v>
+      </c>
+      <c s="4" t="str" r="J105"/>
+      <c s="6" t="str" r="K105"/>
+    </row>
+    <row r="106" ht="18" customHeight="0">
+      <c s="11" t="str" r="B106"/>
+      <c s="15" t="str" r="C106"/>
+      <c s="16" t="str" r="E106"/>
+      <c s="4" t="inlineStr" r="F106">
+        <is>
+          <t xml:space="preserve">task</t>
+        </is>
+      </c>
+      <c s="9" t="str" r="G106"/>
+      <c s="4" t="inlineStr" r="H106">
+        <is>
+          <t xml:space="preserve">8.4</t>
+        </is>
+      </c>
+      <c s="10" r="I106">
+        <v>2881</v>
+      </c>
+      <c s="4" t="inlineStr" r="J106">
+        <is>
+          <t xml:space="preserve">5680</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="K106"/>
+    </row>
+    <row r="107" ht="18" customHeight="0">
+      <c s="7" t="str" r="B107"/>
+      <c s="12" t="str" r="C107"/>
+      <c s="13" t="str" r="D107"/>
+      <c s="14" t="str" r="E107"/>
+      <c s="12" t="str" r="F107"/>
+      <c s="14" t="str" r="G107"/>
+      <c s="4" t="inlineStr" r="H107">
+        <is>
+          <t xml:space="preserve">23.2</t>
+        </is>
+      </c>
+      <c s="10" r="I107">
+        <v>2799</v>
+      </c>
+      <c s="4" t="str" r="J107"/>
+      <c s="6" t="str" r="K107"/>
+    </row>
+    <row r="108" ht="27.1" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F5"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:E30"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:E31"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C31:E33"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="B32:B53"/>
-    <mergeCell ref="C32:E53"/>
-    <mergeCell ref="F32:G42"/>
     <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:E35"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:E37"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="J36:K36"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B38:B59"/>
+    <mergeCell ref="C38:E59"/>
+    <mergeCell ref="F38:G48"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="J42:K42"/>
-    <mergeCell ref="F43:G53"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="J48:K48"/>
+    <mergeCell ref="F49:G59"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J51:K51"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:E55"/>
-    <mergeCell ref="F54:G54"/>
     <mergeCell ref="J54:K54"/>
-    <mergeCell ref="F55:G55"/>
     <mergeCell ref="J55:K55"/>
-    <mergeCell ref="C56:E58"/>
-    <mergeCell ref="F56:G57"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
-    <mergeCell ref="F58:G58"/>
     <mergeCell ref="J58:K58"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:E67"/>
-    <mergeCell ref="F59:G64"/>
     <mergeCell ref="J59:K59"/>
+    <mergeCell ref="B60:B70"/>
+    <mergeCell ref="C60:E63"/>
+    <mergeCell ref="F60:G61"/>
     <mergeCell ref="J60:K60"/>
     <mergeCell ref="J61:K61"/>
+    <mergeCell ref="F62:G63"/>
     <mergeCell ref="J62:K62"/>
     <mergeCell ref="J63:K63"/>
+    <mergeCell ref="C64:E70"/>
+    <mergeCell ref="F64:G68"/>
     <mergeCell ref="J64:K64"/>
-    <mergeCell ref="F65:G67"/>
     <mergeCell ref="J65:K65"/>
+    <mergeCell ref="H66:H67"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:G68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="C69:E74"/>
-    <mergeCell ref="F69:G71"/>
+    <mergeCell ref="F69:G70"/>
     <mergeCell ref="J69:K69"/>
     <mergeCell ref="J70:K70"/>
+    <mergeCell ref="B71:B79"/>
+    <mergeCell ref="C71:E79"/>
+    <mergeCell ref="F71:G76"/>
     <mergeCell ref="J71:K71"/>
-    <mergeCell ref="F72:G74"/>
     <mergeCell ref="J72:K72"/>
     <mergeCell ref="J73:K73"/>
     <mergeCell ref="J74:K74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:E78"/>
-    <mergeCell ref="F75:G76"/>
     <mergeCell ref="J75:K75"/>
     <mergeCell ref="J76:K76"/>
-    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="F77:G79"/>
     <mergeCell ref="J77:K77"/>
     <mergeCell ref="J78:K78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:E81"/>
-    <mergeCell ref="F79:G80"/>
-    <mergeCell ref="H79:H80"/>
     <mergeCell ref="J79:K79"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="F80:G80"/>
     <mergeCell ref="J80:K80"/>
-    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="C81:E86"/>
+    <mergeCell ref="F81:G83"/>
     <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:E83"/>
-    <mergeCell ref="F82:G82"/>
     <mergeCell ref="J82:K82"/>
-    <mergeCell ref="F83:G83"/>
     <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:E86"/>
-    <mergeCell ref="F84:G85"/>
+    <mergeCell ref="F84:G86"/>
     <mergeCell ref="J84:K84"/>
     <mergeCell ref="J85:K85"/>
-    <mergeCell ref="F86:G86"/>
     <mergeCell ref="J86:K86"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="C87:E91"/>
-    <mergeCell ref="F87:G89"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C87:E90"/>
+    <mergeCell ref="F87:G88"/>
     <mergeCell ref="J87:K87"/>
     <mergeCell ref="J88:K88"/>
+    <mergeCell ref="F89:G90"/>
     <mergeCell ref="J89:K89"/>
-    <mergeCell ref="F90:G91"/>
     <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="C91:E97"/>
+    <mergeCell ref="F91:G94"/>
+    <mergeCell ref="H91:H92"/>
     <mergeCell ref="J91:K91"/>
-    <mergeCell ref="C92:E93"/>
-    <mergeCell ref="F92:G93"/>
-    <mergeCell ref="H92:H93"/>
     <mergeCell ref="J92:K92"/>
     <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="F95:G97"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:E99"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:E101"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="C102:E107"/>
+    <mergeCell ref="F102:G105"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="F106:G107"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J107:K107"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C23" location="'UFR'!C92"/>
-    <hyperlink ref="C22" location="'UFR'!C87"/>
-    <hyperlink ref="C21" location="'UFR'!C84"/>
-    <hyperlink ref="C20" location="'UFR'!C82"/>
-    <hyperlink ref="C19" location="'UFR'!C79"/>
-    <hyperlink ref="C18" location="'UFR'!C75"/>
-    <hyperlink ref="C17" location="'UFR'!C69"/>
-    <hyperlink ref="C16" location="'UFR'!C68"/>
-    <hyperlink ref="C15" location="'UFR'!C59"/>
-    <hyperlink ref="C14" location="'UFR'!C56"/>
-    <hyperlink ref="C13" location="'UFR'!C54"/>
-    <hyperlink ref="C12" location="'UFR'!C32"/>
-    <hyperlink ref="C11" location="'UFR'!C30"/>
-    <hyperlink ref="C10" location="'UFR'!C28"/>
+    <hyperlink ref="C24" location="'UFR'!C102"/>
+    <hyperlink ref="C23" location="'UFR'!C100"/>
+    <hyperlink ref="C22" location="'UFR'!C98"/>
+    <hyperlink ref="C21" location="'UFR'!C91"/>
+    <hyperlink ref="C20" location="'UFR'!C87"/>
+    <hyperlink ref="C19" location="'UFR'!C81"/>
+    <hyperlink ref="C18" location="'UFR'!C80"/>
+    <hyperlink ref="C17" location="'UFR'!C71"/>
+    <hyperlink ref="C16" location="'UFR'!C64"/>
+    <hyperlink ref="C15" location="'UFR'!C60"/>
+    <hyperlink ref="C14" location="'UFR'!C38"/>
+    <hyperlink ref="C13" location="'UFR'!C36"/>
+    <hyperlink ref="C12" location="'UFR'!C34"/>
+    <hyperlink ref="C11" location="'UFR'!C31"/>
+    <hyperlink ref="C10" location="'UFR'!C29"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
